--- a/2_Extracting affilitations/2_Fuzzy matching/Combined journals/Combined journal yearly rank.xlsx
+++ b/2_Extracting affilitations/2_Fuzzy matching/Combined journals/Combined journal yearly rank.xlsx
@@ -499,8 +499,10 @@
       <c r="A3" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B3" t="n">
-        <v>1824212</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1824212</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -576,8 +578,10 @@
       <c r="A6" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B6" t="n">
-        <v>1824211</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1824211</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -603,8 +607,10 @@
       <c r="A7" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B7" t="n">
-        <v>1825482</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1825482</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -630,8 +636,10 @@
       <c r="A8" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B8" t="n">
-        <v>1825486</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1825486</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -657,8 +665,10 @@
       <c r="A9" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B9" t="n">
-        <v>1825598</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1825598</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -734,8 +744,10 @@
       <c r="A12" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B12" t="n">
-        <v>1825331</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1825331</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -761,8 +773,10 @@
       <c r="A13" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B13" t="n">
-        <v>1825333</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1825333</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -813,8 +827,10 @@
       <c r="A15" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B15" t="n">
-        <v>1824431</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1824431</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -840,8 +856,10 @@
       <c r="A16" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B16" t="n">
-        <v>1824350</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1824350</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -917,8 +935,10 @@
       <c r="A19" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B19" t="n">
-        <v>1825329</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1825329</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -994,8 +1014,10 @@
       <c r="A22" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B22" t="n">
-        <v>1824644</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1824644</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1021,8 +1043,10 @@
       <c r="A23" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B23" t="n">
-        <v>1824641</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1824641</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1048,8 +1072,10 @@
       <c r="A24" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B24" t="n">
-        <v>1824669</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1824669</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1175,8 +1201,10 @@
       <c r="A29" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B29" t="n">
-        <v>1825432</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1825432</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1202,8 +1230,10 @@
       <c r="A30" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B30" t="n">
-        <v>1825228</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1825228</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1729,8 +1759,10 @@
       <c r="A51" s="1" t="n">
         <v>1944</v>
       </c>
-      <c r="B51" t="n">
-        <v>2296095</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2296095</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2431,8 +2463,10 @@
       <c r="A79" s="1" t="n">
         <v>1947</v>
       </c>
-      <c r="B79" t="n">
-        <v>1826223</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1826223</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2483,8 +2517,10 @@
       <c r="A81" s="1" t="n">
         <v>1947</v>
       </c>
-      <c r="B81" t="n">
-        <v>1829388</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1829388</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2510,8 +2546,10 @@
       <c r="A82" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B82" t="n">
-        <v>1826409</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1826409</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2537,8 +2575,10 @@
       <c r="A83" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B83" t="n">
-        <v>1825770</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1825770</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2689,8 +2729,10 @@
       <c r="A89" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B89" t="n">
-        <v>1826046</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1826046</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2741,8 +2783,10 @@
       <c r="A91" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B91" t="n">
-        <v>2296140</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2296140</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2993,8 +3037,10 @@
       <c r="A101" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B101" t="n">
-        <v>1828624</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1828624</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3020,8 +3066,10 @@
       <c r="A102" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B102" t="n">
-        <v>1828885</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1828885</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3047,8 +3095,10 @@
       <c r="A103" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B103" t="n">
-        <v>1825713</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1825713</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3074,8 +3124,10 @@
       <c r="A104" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B104" t="n">
-        <v>1826025</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1826025</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3101,8 +3153,10 @@
       <c r="A105" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B105" t="n">
-        <v>1827161</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1827161</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3128,8 +3182,10 @@
       <c r="A106" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B106" t="n">
-        <v>1827092</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1827092</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3155,8 +3211,10 @@
       <c r="A107" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B107" t="n">
-        <v>1828886</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1828886</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3207,8 +3265,10 @@
       <c r="A109" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B109" t="n">
-        <v>1828884</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1828884</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3284,8 +3344,10 @@
       <c r="A112" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B112" t="n">
-        <v>1826727</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1826727</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3311,8 +3373,10 @@
       <c r="A113" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B113" t="n">
-        <v>1830242</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1830242</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3338,8 +3402,10 @@
       <c r="A114" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B114" t="n">
-        <v>1826852</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1826852</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3390,8 +3456,10 @@
       <c r="A116" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B116" t="n">
-        <v>1826854</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1826854</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3417,8 +3485,10 @@
       <c r="A117" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B117" t="n">
-        <v>1825744</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1825744</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3444,8 +3514,10 @@
       <c r="A118" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B118" t="n">
-        <v>1825748</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1825748</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3471,8 +3543,10 @@
       <c r="A119" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B119" t="n">
-        <v>1826852</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1826852</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3523,8 +3597,10 @@
       <c r="A121" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B121" t="n">
-        <v>1825744</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1825744</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3550,8 +3626,10 @@
       <c r="A122" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B122" t="n">
-        <v>1826451</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1826451</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3577,8 +3655,10 @@
       <c r="A123" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B123" t="n">
-        <v>1826297</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1826297</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3654,8 +3734,10 @@
       <c r="A126" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B126" t="n">
-        <v>1825275</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1825275</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3681,8 +3763,10 @@
       <c r="A127" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B127" t="n">
-        <v>1828929</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1828929</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3708,8 +3792,10 @@
       <c r="A128" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B128" t="n">
-        <v>1826295</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1826295</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3735,8 +3821,10 @@
       <c r="A129" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B129" t="n">
-        <v>1826482</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1826482</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3787,8 +3875,10 @@
       <c r="A131" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B131" t="n">
-        <v>1825271</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1825271</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3814,8 +3904,10 @@
       <c r="A132" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B132" t="n">
-        <v>1825410</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1825410</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3866,8 +3958,10 @@
       <c r="A134" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B134" t="n">
-        <v>1827290</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1827290</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3893,8 +3987,10 @@
       <c r="A135" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B135" t="n">
-        <v>1824911</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1824911</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3945,8 +4041,10 @@
       <c r="A137" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B137" t="n">
-        <v>1825410</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1825410</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3997,8 +4095,10 @@
       <c r="A139" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B139" t="n">
-        <v>1826880</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1826880</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4049,8 +4149,10 @@
       <c r="A141" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B141" t="n">
-        <v>1825410</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1825410</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4076,8 +4178,10 @@
       <c r="A142" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B142" t="n">
-        <v>1825569</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1825569</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4128,8 +4232,10 @@
       <c r="A144" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B144" t="n">
-        <v>1826523</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1826523</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4180,8 +4286,10 @@
       <c r="A146" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B146" t="n">
-        <v>1826520</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1826520</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4207,8 +4315,10 @@
       <c r="A147" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B147" t="n">
-        <v>1825572</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1825572</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4259,8 +4369,10 @@
       <c r="A149" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B149" t="n">
-        <v>1827234</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1827234</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4311,8 +4423,10 @@
       <c r="A151" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B151" t="n">
-        <v>1826522</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1826522</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4388,8 +4502,10 @@
       <c r="A154" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B154" t="n">
-        <v>1826778</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1826778</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4415,8 +4531,10 @@
       <c r="A155" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B155" t="n">
-        <v>1826571</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1826571</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4467,8 +4585,10 @@
       <c r="A157" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B157" t="n">
-        <v>1826575</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1826575</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4519,8 +4639,10 @@
       <c r="A159" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B159" t="n">
-        <v>1827050</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1827050</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4571,8 +4693,10 @@
       <c r="A161" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B161" t="n">
-        <v>1827129</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1827129</t>
+        </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4598,8 +4722,10 @@
       <c r="A162" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B162" t="n">
-        <v>1826077</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1826077</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4650,8 +4776,10 @@
       <c r="A164" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B164" t="n">
-        <v>1825856</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1825856</t>
+        </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4677,8 +4805,10 @@
       <c r="A165" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B165" t="n">
-        <v>1826343</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1826343</t>
+        </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4754,8 +4884,10 @@
       <c r="A168" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B168" t="n">
-        <v>1826111</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1826111</t>
+        </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4781,8 +4913,10 @@
       <c r="A169" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B169" t="n">
-        <v>1825883</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1825883</t>
+        </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4808,8 +4942,10 @@
       <c r="A170" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B170" t="n">
-        <v>1826829</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1826829</t>
+        </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4835,8 +4971,10 @@
       <c r="A171" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B171" t="n">
-        <v>1825859</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1825859</t>
+        </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4862,8 +5000,10 @@
       <c r="A172" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B172" t="n">
-        <v>1824830</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1824830</t>
+        </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4914,8 +5054,10 @@
       <c r="A174" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B174" t="n">
-        <v>1827398</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1827398</t>
+        </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4941,8 +5083,10 @@
       <c r="A175" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B175" t="n">
-        <v>1827400</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1827400</t>
+        </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4968,8 +5112,10 @@
       <c r="A176" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B176" t="n">
-        <v>2296067</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2296067</t>
+        </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4995,8 +5141,10 @@
       <c r="A177" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B177" t="n">
-        <v>1833293</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1833293</t>
+        </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5022,8 +5170,10 @@
       <c r="A178" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B178" t="n">
-        <v>1833292</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1833292</t>
+        </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5049,8 +5199,10 @@
       <c r="A179" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B179" t="n">
-        <v>1824806</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1824806</t>
+        </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5101,8 +5253,10 @@
       <c r="A181" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B181" t="n">
-        <v>2296118</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2296118</t>
+        </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5128,8 +5282,10 @@
       <c r="A182" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B182" t="n">
-        <v>1833233</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1833233</t>
+        </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5155,8 +5311,10 @@
       <c r="A183" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B183" t="n">
-        <v>1827270</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1827270</t>
+        </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5182,8 +5340,10 @@
       <c r="A184" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B184" t="n">
-        <v>2296207</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2296207</t>
+        </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5209,8 +5369,10 @@
       <c r="A185" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B185" t="n">
-        <v>1826948</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1826948</t>
+        </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5261,8 +5423,10 @@
       <c r="A187" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B187" t="n">
-        <v>1826945</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1826945</t>
+        </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5288,8 +5452,10 @@
       <c r="A188" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B188" t="n">
-        <v>1826667</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1826667</t>
+        </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5315,8 +5481,10 @@
       <c r="A189" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B189" t="n">
-        <v>1827271</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1827271</t>
+        </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5342,8 +5510,10 @@
       <c r="A190" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B190" t="n">
-        <v>1826994</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1826994</t>
+        </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5369,8 +5539,10 @@
       <c r="A191" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B191" t="n">
-        <v>2295984</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2295984</t>
+        </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5396,8 +5568,10 @@
       <c r="A192" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B192" t="n">
-        <v>1825388</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1825388</t>
+        </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5423,8 +5597,10 @@
       <c r="A193" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B193" t="n">
-        <v>1825167</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1825167</t>
+        </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5450,8 +5626,10 @@
       <c r="A194" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B194" t="n">
-        <v>1826750</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1826750</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5477,8 +5655,10 @@
       <c r="A195" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B195" t="n">
-        <v>1826697</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1826697</t>
+        </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5529,8 +5709,10 @@
       <c r="A197" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B197" t="n">
-        <v>1825392</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1825392</t>
+        </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5581,8 +5763,10 @@
       <c r="A199" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B199" t="n">
-        <v>1826746</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1826746</t>
+        </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5633,8 +5817,10 @@
       <c r="A201" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B201" t="n">
-        <v>1826748</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1826748</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5660,8 +5846,10 @@
       <c r="A202" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B202" t="n">
-        <v>1829116</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1829116</t>
+        </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5687,8 +5875,10 @@
       <c r="A203" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B203" t="n">
-        <v>2296129</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2296129</t>
+        </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5714,8 +5904,10 @@
       <c r="A204" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B204" t="n">
-        <v>1827209</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1827209</t>
+        </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5741,8 +5933,10 @@
       <c r="A205" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B205" t="n">
-        <v>1830308</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1830308</t>
+        </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5768,8 +5962,10 @@
       <c r="A206" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B206" t="n">
-        <v>1829951</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1829951</t>
+        </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5820,8 +6016,10 @@
       <c r="A208" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B208" t="n">
-        <v>1829119</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1829119</t>
+        </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5847,8 +6045,10 @@
       <c r="A209" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B209" t="n">
-        <v>1830006</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1830006</t>
+        </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5874,8 +6074,10 @@
       <c r="A210" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B210" t="n">
-        <v>1829944</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1829944</t>
+        </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5976,8 +6178,10 @@
       <c r="A214" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B214" t="n">
-        <v>1828722</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1828722</t>
+        </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6003,8 +6207,10 @@
       <c r="A215" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B215" t="n">
-        <v>1828540</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1828540</t>
+        </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6055,8 +6261,10 @@
       <c r="A217" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B217" t="n">
-        <v>1829266</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1829266</t>
+        </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6082,8 +6290,10 @@
       <c r="A218" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B218" t="n">
-        <v>1828347</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1828347</t>
+        </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6109,8 +6319,10 @@
       <c r="A219" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B219" t="n">
-        <v>1829272</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1829272</t>
+        </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6161,8 +6373,10 @@
       <c r="A221" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B221" t="n">
-        <v>1828536</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1828536</t>
+        </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6188,8 +6402,10 @@
       <c r="A222" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B222" t="n">
-        <v>1829104</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1829104</t>
+        </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6215,8 +6431,10 @@
       <c r="A223" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B223" t="n">
-        <v>1828996</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1828996</t>
+        </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6242,8 +6460,10 @@
       <c r="A224" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B224" t="n">
-        <v>1828781</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1828781</t>
+        </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6269,8 +6489,10 @@
       <c r="A225" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B225" t="n">
-        <v>1828780</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1828780</t>
+        </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6296,8 +6518,10 @@
       <c r="A226" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B226" t="n">
-        <v>1827025</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1827025</t>
+        </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6323,8 +6547,10 @@
       <c r="A227" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B227" t="n">
-        <v>1861811</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1861811</t>
+        </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6375,8 +6601,10 @@
       <c r="A229" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B229" t="n">
-        <v>1828859</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1828859</t>
+        </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -6427,8 +6655,10 @@
       <c r="A231" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B231" t="n">
-        <v>1828857</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1828857</t>
+        </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6454,8 +6684,10 @@
       <c r="A232" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B232" t="n">
-        <v>1828512</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1828512</t>
+        </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6481,8 +6713,10 @@
       <c r="A233" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B233" t="n">
-        <v>1829014</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1829014</t>
+        </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6508,8 +6742,10 @@
       <c r="A234" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B234" t="n">
-        <v>1828443</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1828443</t>
+        </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6535,8 +6771,10 @@
       <c r="A235" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B235" t="n">
-        <v>1828983</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1828983</t>
+        </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6562,8 +6800,10 @@
       <c r="A236" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B236" t="n">
-        <v>1828517</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1828517</t>
+        </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6639,8 +6879,10 @@
       <c r="A239" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B239" t="n">
-        <v>1829015</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1829015</t>
+        </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -6666,8 +6908,10 @@
       <c r="A240" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B240" t="n">
-        <v>1828442</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1828442</t>
+        </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6693,8 +6937,10 @@
       <c r="A241" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B241" t="n">
-        <v>1828441</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1828441</t>
+        </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6745,8 +6991,10 @@
       <c r="A243" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B243" t="n">
-        <v>1828390</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1828390</t>
+        </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6772,8 +7020,10 @@
       <c r="A244" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B244" t="n">
-        <v>2295906</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2295906</t>
+        </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -6824,8 +7074,10 @@
       <c r="A246" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B246" t="n">
-        <v>1829464</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1829464</t>
+        </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -6851,8 +7103,10 @@
       <c r="A247" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B247" t="n">
-        <v>2295901</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2295901</t>
+        </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -6878,8 +7132,10 @@
       <c r="A248" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B248" t="n">
-        <v>2295898</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2295898</t>
+        </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -6905,8 +7161,10 @@
       <c r="A249" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B249" t="n">
-        <v>1828795</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1828795</t>
+        </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -6932,8 +7190,10 @@
       <c r="A250" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B250" t="n">
-        <v>1828390</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1828390</t>
+        </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -6959,8 +7219,10 @@
       <c r="A251" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B251" t="n">
-        <v>1829465</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1829465</t>
+        </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -6986,8 +7248,10 @@
       <c r="A252" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B252" t="n">
-        <v>1829133</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1829133</t>
+        </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -7013,8 +7277,10 @@
       <c r="A253" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B253" t="n">
-        <v>2295829</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2295829</t>
+        </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7040,8 +7306,10 @@
       <c r="A254" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B254" t="n">
-        <v>1828426</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1828426</t>
+        </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7092,8 +7360,10 @@
       <c r="A256" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B256" t="n">
-        <v>1829042</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1829042</t>
+        </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7119,8 +7389,10 @@
       <c r="A257" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B257" t="n">
-        <v>1829492</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1829492</t>
+        </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7146,8 +7418,10 @@
       <c r="A258" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B258" t="n">
-        <v>1829499</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1829499</t>
+        </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7173,8 +7447,10 @@
       <c r="A259" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B259" t="n">
-        <v>1829497</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1829497</t>
+        </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7225,8 +7501,10 @@
       <c r="A261" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B261" t="n">
-        <v>1829884</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1829884</t>
+        </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7252,8 +7530,10 @@
       <c r="A262" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B262" t="n">
-        <v>1828743</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1828743</t>
+        </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7304,8 +7584,10 @@
       <c r="A264" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B264" t="n">
-        <v>1861769</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1861769</t>
+        </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7381,8 +7663,10 @@
       <c r="A267" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B267" t="n">
-        <v>1828745</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1828745</t>
+        </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7408,8 +7692,10 @@
       <c r="A268" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B268" t="n">
-        <v>1828841</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1828841</t>
+        </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7435,8 +7721,10 @@
       <c r="A269" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B269" t="n">
-        <v>1828744</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1828744</t>
+        </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7462,8 +7750,10 @@
       <c r="A270" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B270" t="n">
-        <v>2974431</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2974431</t>
+        </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -7489,8 +7779,10 @@
       <c r="A271" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B271" t="n">
-        <v>1828741</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1828741</t>
+        </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -7516,8 +7808,10 @@
       <c r="A272" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B272" t="n">
-        <v>1829543</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1829543</t>
+        </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -7543,8 +7837,10 @@
       <c r="A273" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B273" t="n">
-        <v>1829545</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1829545</t>
+        </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -7570,8 +7866,10 @@
       <c r="A274" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B274" t="n">
-        <v>1832167</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1832167</t>
+        </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -7622,8 +7920,10 @@
       <c r="A276" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B276" t="n">
-        <v>1829546</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1829546</t>
+        </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7649,8 +7949,10 @@
       <c r="A277" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B277" t="n">
-        <v>1829550</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1829550</t>
+        </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7676,8 +7978,10 @@
       <c r="A278" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B278" t="n">
-        <v>1829090</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1829090</t>
+        </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7703,8 +8007,10 @@
       <c r="A279" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B279" t="n">
-        <v>1829571</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1829571</t>
+        </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -7730,8 +8036,10 @@
       <c r="A280" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B280" t="n">
-        <v>1829822</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1829822</t>
+        </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -7757,8 +8065,10 @@
       <c r="A281" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B281" t="n">
-        <v>1828683</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1828683</t>
+        </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7784,8 +8094,10 @@
       <c r="A282" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B282" t="n">
-        <v>1830482</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1830482</t>
+        </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -7811,8 +8123,10 @@
       <c r="A283" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B283" t="n">
-        <v>1830392</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1830392</t>
+        </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -7838,8 +8152,10 @@
       <c r="A284" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B284" t="n">
-        <v>1830050</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1830050</t>
+        </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -7865,8 +8181,10 @@
       <c r="A285" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B285" t="n">
-        <v>1830371</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1830371</t>
+        </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -7892,8 +8210,10 @@
       <c r="A286" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B286" t="n">
-        <v>2296547</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2296547</t>
+        </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -7919,8 +8239,10 @@
       <c r="A287" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B287" t="n">
-        <v>1830159</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1830159</t>
+        </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -7946,8 +8268,10 @@
       <c r="A288" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B288" t="n">
-        <v>1830154</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1830154</t>
+        </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -7973,8 +8297,10 @@
       <c r="A289" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B289" t="n">
-        <v>1830032</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1830032</t>
+        </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -8000,8 +8326,10 @@
       <c r="A290" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B290" t="n">
-        <v>1830370</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1830370</t>
+        </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -8027,8 +8355,10 @@
       <c r="A291" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B291" t="n">
-        <v>1830393</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1830393</t>
+        </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -8054,8 +8384,10 @@
       <c r="A292" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B292" t="n">
-        <v>1837205</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1837205</t>
+        </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -8081,8 +8413,10 @@
       <c r="A293" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B293" t="n">
-        <v>1829965</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1829965</t>
+        </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -8108,8 +8442,10 @@
       <c r="A294" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B294" t="n">
-        <v>1829321</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1829321</t>
+        </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -8135,8 +8471,10 @@
       <c r="A295" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B295" t="n">
-        <v>1829972</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1829972</t>
+        </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -8162,8 +8500,10 @@
       <c r="A296" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B296" t="n">
-        <v>1837209</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1837209</t>
+        </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -8189,8 +8529,10 @@
       <c r="A297" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B297" t="n">
-        <v>1837211</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1837211</t>
+        </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -8216,8 +8558,10 @@
       <c r="A298" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B298" t="n">
-        <v>1829324</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1829324</t>
+        </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -8243,8 +8587,10 @@
       <c r="A299" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B299" t="n">
-        <v>1829976</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1829976</t>
+        </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -8270,8 +8616,10 @@
       <c r="A300" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B300" t="n">
-        <v>2296339</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2296339</t>
+        </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -8297,8 +8645,10 @@
       <c r="A301" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B301" t="n">
-        <v>1829967</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1829967</t>
+        </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -8324,8 +8674,10 @@
       <c r="A302" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B302" t="n">
-        <v>1829617</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1829617</t>
+        </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -8351,8 +8703,10 @@
       <c r="A303" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B303" t="n">
-        <v>1829931</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1829931</t>
+        </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8378,8 +8732,10 @@
       <c r="A304" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B304" t="n">
-        <v>1829635</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1829635</t>
+        </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8405,8 +8761,10 @@
       <c r="A305" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B305" t="n">
-        <v>1830880</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1830880</t>
+        </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -8432,8 +8790,10 @@
       <c r="A306" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B306" t="n">
-        <v>1830690</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1830690</t>
+        </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8459,8 +8819,10 @@
       <c r="A307" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B307" t="n">
-        <v>1830699</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1830699</t>
+        </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8511,8 +8873,10 @@
       <c r="A309" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B309" t="n">
-        <v>1829932</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1829932</t>
+        </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -8538,8 +8902,10 @@
       <c r="A310" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B310" t="n">
-        <v>1829929</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1829929</t>
+        </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -8565,8 +8931,10 @@
       <c r="A311" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B311" t="n">
-        <v>1829932</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1829932</t>
+        </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -8592,8 +8960,10 @@
       <c r="A312" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B312" t="n">
-        <v>1830285</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1830285</t>
+        </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -8619,8 +8989,10 @@
       <c r="A313" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B313" t="n">
-        <v>1832122</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1832122</t>
+        </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -8646,8 +9018,10 @@
       <c r="A314" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B314" t="n">
-        <v>1830108</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1830108</t>
+        </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -8673,8 +9047,10 @@
       <c r="A315" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B315" t="n">
-        <v>1830776</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1830776</t>
+        </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8700,8 +9076,10 @@
       <c r="A316" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B316" t="n">
-        <v>1837391</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1837391</t>
+        </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -8727,8 +9105,10 @@
       <c r="A317" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B317" t="n">
-        <v>1832109</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1832109</t>
+        </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -8754,8 +9134,10 @@
       <c r="A318" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B318" t="n">
-        <v>1813454</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1813454</t>
+        </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8781,8 +9163,10 @@
       <c r="A319" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B319" t="n">
-        <v>1830780</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1830780</t>
+        </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8808,8 +9192,10 @@
       <c r="A320" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B320" t="n">
-        <v>1837391</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1837391</t>
+        </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -8835,8 +9221,10 @@
       <c r="A321" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B321" t="n">
-        <v>1830839</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1830839</t>
+        </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -8862,8 +9250,10 @@
       <c r="A322" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B322" t="n">
-        <v>1806096</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1806096</t>
+        </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -8889,8 +9279,10 @@
       <c r="A323" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B323" t="n">
-        <v>1806124</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1806124</t>
+        </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -8916,8 +9308,10 @@
       <c r="A324" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B324" t="n">
-        <v>1821528</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1821528</t>
+        </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -8943,8 +9337,10 @@
       <c r="A325" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B325" t="n">
-        <v>1806119</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1806119</t>
+        </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -8970,8 +9366,10 @@
       <c r="A326" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B326" t="n">
-        <v>1806094</v>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1806094</t>
+        </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -8997,8 +9395,10 @@
       <c r="A327" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B327" t="n">
-        <v>1821578</v>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1821578</t>
+        </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -9024,8 +9424,10 @@
       <c r="A328" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B328" t="n">
-        <v>1821549</v>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1821549</t>
+        </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -9051,8 +9453,10 @@
       <c r="A329" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B329" t="n">
-        <v>1806095</v>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1806095</t>
+        </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -9078,8 +9482,10 @@
       <c r="A330" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B330" t="n">
-        <v>1806107</v>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1806107</t>
+        </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -9105,8 +9511,10 @@
       <c r="A331" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B331" t="n">
-        <v>1806112</v>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1806112</t>
+        </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -9132,8 +9540,10 @@
       <c r="A332" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B332" t="n">
-        <v>1830640</v>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1830640</t>
+        </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -9159,8 +9569,10 @@
       <c r="A333" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B333" t="n">
-        <v>1830513</v>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1830513</t>
+        </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -9186,8 +9598,10 @@
       <c r="A334" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B334" t="n">
-        <v>1831132</v>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1831132</t>
+        </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -9213,8 +9627,10 @@
       <c r="A335" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B335" t="n">
-        <v>1808856</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1808856</t>
+        </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -9240,8 +9656,10 @@
       <c r="A336" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B336" t="n">
-        <v>1840414</v>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1840414</t>
+        </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -9267,8 +9685,10 @@
       <c r="A337" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B337" t="n">
-        <v>1837337</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1837337</t>
+        </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -9294,8 +9714,10 @@
       <c r="A338" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B338" t="n">
-        <v>2296743</v>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2296743</t>
+        </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -9321,8 +9743,10 @@
       <c r="A339" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B339" t="n">
-        <v>1831029</v>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1831029</t>
+        </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -9348,8 +9772,10 @@
       <c r="A340" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B340" t="n">
-        <v>1837332</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1837332</t>
+        </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -9375,8 +9801,10 @@
       <c r="A341" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B341" t="n">
-        <v>1830534</v>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1830534</t>
+        </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -9402,8 +9830,10 @@
       <c r="A342" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B342" t="n">
-        <v>1829184</v>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1829184</t>
+        </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -9429,8 +9859,10 @@
       <c r="A343" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B343" t="n">
-        <v>1816021</v>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1816021</t>
+        </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -9456,8 +9888,10 @@
       <c r="A344" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B344" t="n">
-        <v>1816020</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1816020</t>
+        </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -9483,8 +9917,10 @@
       <c r="A345" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B345" t="n">
-        <v>1815258</v>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1815258</t>
+        </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -9510,8 +9946,10 @@
       <c r="A346" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B346" t="n">
-        <v>1816078</v>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1816078</t>
+        </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -9537,8 +9975,10 @@
       <c r="A347" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B347" t="n">
-        <v>1816031</v>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1816031</t>
+        </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -9564,8 +10004,10 @@
       <c r="A348" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B348" t="n">
-        <v>1808899</v>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1808899</t>
+        </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -9591,8 +10033,10 @@
       <c r="A349" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B349" t="n">
-        <v>1830665</v>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1830665</t>
+        </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -9618,8 +10062,10 @@
       <c r="A350" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B350" t="n">
-        <v>2296752</v>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2296752</t>
+        </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -9645,8 +10091,10 @@
       <c r="A351" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B351" t="n">
-        <v>1816011</v>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1816011</t>
+        </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -9672,8 +10120,10 @@
       <c r="A352" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B352" t="n">
-        <v>1818872</v>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1818872</t>
+        </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -9699,8 +10149,10 @@
       <c r="A353" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B353" t="n">
-        <v>1806640</v>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1806640</t>
+        </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -9726,8 +10178,10 @@
       <c r="A354" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B354" t="n">
-        <v>2296851</v>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2296851</t>
+        </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -9753,8 +10207,10 @@
       <c r="A355" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B355" t="n">
-        <v>2296826</v>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2296826</t>
+        </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -9780,8 +10236,10 @@
       <c r="A356" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B356" t="n">
-        <v>1818841</v>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1818841</t>
+        </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -9807,8 +10265,10 @@
       <c r="A357" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B357" t="n">
-        <v>2296848</v>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2296848</t>
+        </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -9834,8 +10294,10 @@
       <c r="A358" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B358" t="n">
-        <v>1806557</v>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1806557</t>
+        </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -9861,8 +10323,10 @@
       <c r="A359" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B359" t="n">
-        <v>1806412</v>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1806412</t>
+        </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -9888,8 +10352,10 @@
       <c r="A360" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B360" t="n">
-        <v>1818832</v>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1818832</t>
+        </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -9915,8 +10381,10 @@
       <c r="A361" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B361" t="n">
-        <v>1818849</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1818849</t>
+        </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -9942,8 +10410,10 @@
       <c r="A362" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B362" t="n">
-        <v>1831104</v>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1831104</t>
+        </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -9969,8 +10439,10 @@
       <c r="A363" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B363" t="n">
-        <v>1804959</v>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1804959</t>
+        </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -9996,8 +10468,10 @@
       <c r="A364" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B364" t="n">
-        <v>1817238</v>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1817238</t>
+        </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -10023,8 +10497,10 @@
       <c r="A365" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B365" t="n">
-        <v>2296603</v>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2296603</t>
+        </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -10050,8 +10526,10 @@
       <c r="A366" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B366" t="n">
-        <v>1817244</v>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1817244</t>
+        </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -10077,8 +10555,10 @@
       <c r="A367" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B367" t="n">
-        <v>1831338</v>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1831338</t>
+        </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -10104,8 +10584,10 @@
       <c r="A368" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B368" t="n">
-        <v>1817235</v>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1817235</t>
+        </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -10131,8 +10613,10 @@
       <c r="A369" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B369" t="n">
-        <v>1804963</v>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1804963</t>
+        </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -10158,8 +10642,10 @@
       <c r="A370" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B370" t="n">
-        <v>1828165</v>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1828165</t>
+        </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -10185,8 +10671,10 @@
       <c r="A371" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B371" t="n">
-        <v>1817199</v>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1817199</t>
+        </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -10212,8 +10700,10 @@
       <c r="A372" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B372" t="n">
-        <v>1885889</v>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1885889</t>
+        </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -10239,8 +10729,10 @@
       <c r="A373" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B373" t="n">
-        <v>1828339</v>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1828339</t>
+        </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -10266,8 +10758,10 @@
       <c r="A374" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B374" t="n">
-        <v>1885880</v>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1885880</t>
+        </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -10293,8 +10787,10 @@
       <c r="A375" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B375" t="n">
-        <v>1815895</v>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1815895</t>
+        </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -10320,8 +10816,10 @@
       <c r="A376" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B376" t="n">
-        <v>1885985</v>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1885985</t>
+        </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -10347,8 +10845,10 @@
       <c r="A377" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B377" t="n">
-        <v>1883144</v>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1883144</t>
+        </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -10374,8 +10874,10 @@
       <c r="A378" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B378" t="n">
-        <v>1828709</v>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1828709</t>
+        </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -10401,8 +10903,10 @@
       <c r="A379" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B379" t="n">
-        <v>1830794</v>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1830794</t>
+        </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -10428,8 +10932,10 @@
       <c r="A380" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B380" t="n">
-        <v>1830348</v>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1830348</t>
+        </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -10455,8 +10961,10 @@
       <c r="A381" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B381" t="n">
-        <v>1828332</v>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1828332</t>
+        </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -10482,8 +10990,10 @@
       <c r="A382" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B382" t="n">
-        <v>1816705</v>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1816705</t>
+        </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -10509,8 +11019,10 @@
       <c r="A383" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B383" t="n">
-        <v>1816707</v>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1816707</t>
+        </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -10536,8 +11048,10 @@
       <c r="A384" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B384" t="n">
-        <v>2297080</v>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2297080</t>
+        </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -10563,8 +11077,10 @@
       <c r="A385" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B385" t="n">
-        <v>1816685</v>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1816685</t>
+        </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -10590,8 +11106,10 @@
       <c r="A386" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B386" t="n">
-        <v>1816728</v>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1816728</t>
+        </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -10617,8 +11135,10 @@
       <c r="A387" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B387" t="n">
-        <v>2297336</v>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2297336</t>
+        </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -10644,8 +11164,10 @@
       <c r="A388" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B388" t="n">
-        <v>2297089</v>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2297089</t>
+        </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -10671,8 +11193,10 @@
       <c r="A389" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B389" t="n">
-        <v>1816720</v>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1816720</t>
+        </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -10698,8 +11222,10 @@
       <c r="A390" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B390" t="n">
-        <v>1816724</v>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1816724</t>
+        </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -10725,8 +11251,10 @@
       <c r="A391" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B391" t="n">
-        <v>1828758</v>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1828758</t>
+        </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -10752,8 +11280,10 @@
       <c r="A392" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B392" t="n">
-        <v>1831013</v>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1831013</t>
+        </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -10779,8 +11309,10 @@
       <c r="A393" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B393" t="n">
-        <v>1832026</v>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1832026</t>
+        </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -10806,8 +11338,10 @@
       <c r="A394" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B394" t="n">
-        <v>1832094</v>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1832094</t>
+        </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -10833,8 +11367,10 @@
       <c r="A395" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B395" t="n">
-        <v>1831011</v>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1831011</t>
+        </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -10860,8 +11396,10 @@
       <c r="A396" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B396" t="n">
-        <v>1832090</v>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1832090</t>
+        </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -10887,8 +11425,10 @@
       <c r="A397" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B397" t="n">
-        <v>1884475</v>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1884475</t>
+        </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -10914,8 +11454,10 @@
       <c r="A398" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B398" t="n">
-        <v>1832019</v>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1832019</t>
+        </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -10941,8 +11483,10 @@
       <c r="A399" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B399" t="n">
-        <v>1832211</v>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1832211</t>
+        </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -10968,8 +11512,10 @@
       <c r="A400" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B400" t="n">
-        <v>1833329</v>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1833329</t>
+        </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -10995,8 +11541,10 @@
       <c r="A401" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B401" t="n">
-        <v>1831004</v>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1831004</t>
+        </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -11022,8 +11570,10 @@
       <c r="A402" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B402" t="n">
-        <v>1805220</v>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1805220</t>
+        </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -11049,8 +11599,10 @@
       <c r="A403" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B403" t="n">
-        <v>1815507</v>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1815507</t>
+        </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -11076,8 +11628,10 @@
       <c r="A404" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B404" t="n">
-        <v>1837295</v>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1837295</t>
+        </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -11103,8 +11657,10 @@
       <c r="A405" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B405" t="n">
-        <v>1815470</v>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1815470</t>
+        </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -11130,8 +11686,10 @@
       <c r="A406" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B406" t="n">
-        <v>1884584</v>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1884584</t>
+        </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -11157,8 +11715,10 @@
       <c r="A407" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B407" t="n">
-        <v>1833145</v>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1833145</t>
+        </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -11184,8 +11744,10 @@
       <c r="A408" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B408" t="n">
-        <v>1830959</v>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1830959</t>
+        </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -11211,8 +11773,10 @@
       <c r="A409" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B409" t="n">
-        <v>1805768</v>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1805768</t>
+        </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -11238,8 +11802,10 @@
       <c r="A410" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B410" t="n">
-        <v>1815465</v>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1815465</t>
+        </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -11265,8 +11831,10 @@
       <c r="A411" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B411" t="n">
-        <v>1837294</v>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1837294</t>
+        </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -11292,8 +11860,10 @@
       <c r="A412" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B412" t="n">
-        <v>1837187</v>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1837187</t>
+        </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -11319,8 +11889,10 @@
       <c r="A413" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B413" t="n">
-        <v>1815747</v>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1815747</t>
+        </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -11346,8 +11918,10 @@
       <c r="A414" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B414" t="n">
-        <v>1837192</v>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1837192</t>
+        </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -11373,8 +11947,10 @@
       <c r="A415" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B415" t="n">
-        <v>1815736</v>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1815736</t>
+        </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -11400,8 +11976,10 @@
       <c r="A416" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B416" t="n">
-        <v>1837350</v>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1837350</t>
+        </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -11427,8 +12005,10 @@
       <c r="A417" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B417" t="n">
-        <v>1837188</v>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1837188</t>
+        </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -11479,8 +12059,10 @@
       <c r="A419" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B419" t="n">
-        <v>1830810</v>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1830810</t>
+        </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -11506,8 +12088,10 @@
       <c r="A420" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B420" t="n">
-        <v>1815735</v>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1815735</t>
+        </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -11533,8 +12117,10 @@
       <c r="A421" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B421" t="n">
-        <v>1833031</v>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1833031</t>
+        </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -11560,8 +12146,10 @@
       <c r="A422" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B422" t="n">
-        <v>1880757</v>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1880757</t>
+        </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -11587,8 +12175,10 @@
       <c r="A423" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B423" t="n">
-        <v>1882634</v>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1882634</t>
+        </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -11614,8 +12204,10 @@
       <c r="A424" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B424" t="n">
-        <v>1837124</v>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1837124</t>
+        </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -11641,8 +12233,10 @@
       <c r="A425" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B425" t="n">
-        <v>1837125</v>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1837125</t>
+        </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -11668,8 +12262,10 @@
       <c r="A426" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B426" t="n">
-        <v>1882624</v>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1882624</t>
+        </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -11695,8 +12291,10 @@
       <c r="A427" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B427" t="n">
-        <v>1885871</v>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1885871</t>
+        </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -11722,8 +12320,10 @@
       <c r="A428" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B428" t="n">
-        <v>1885099</v>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1885099</t>
+        </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -11749,8 +12349,10 @@
       <c r="A429" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B429" t="n">
-        <v>1831349</v>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1831349</t>
+        </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -11776,8 +12378,10 @@
       <c r="A430" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B430" t="n">
-        <v>1831367</v>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1831367</t>
+        </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -11803,8 +12407,10 @@
       <c r="A431" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B431" t="n">
-        <v>1831349</v>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1831349</t>
+        </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -11830,8 +12436,10 @@
       <c r="A432" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B432" t="n">
-        <v>1831199</v>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1831199</t>
+        </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -11857,8 +12465,10 @@
       <c r="A433" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B433" t="n">
-        <v>1816583</v>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1816583</t>
+        </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -11884,8 +12494,10 @@
       <c r="A434" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B434" t="n">
-        <v>1808143</v>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1808143</t>
+        </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -11911,8 +12523,10 @@
       <c r="A435" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B435" t="n">
-        <v>1808130</v>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1808130</t>
+        </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -11938,8 +12552,10 @@
       <c r="A436" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B436" t="n">
-        <v>1803948</v>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1803948</t>
+        </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -11965,8 +12581,10 @@
       <c r="A437" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B437" t="n">
-        <v>1808133</v>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1808133</t>
+        </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -11992,8 +12610,10 @@
       <c r="A438" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B438" t="n">
-        <v>1832063</v>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1832063</t>
+        </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -12019,8 +12639,10 @@
       <c r="A439" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B439" t="n">
-        <v>1808136</v>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1808136</t>
+        </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -12046,8 +12668,10 @@
       <c r="A440" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B440" t="n">
-        <v>1832054</v>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1832054</t>
+        </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -12073,8 +12697,10 @@
       <c r="A441" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B441" t="n">
-        <v>1816870</v>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1816870</t>
+        </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -12100,8 +12726,10 @@
       <c r="A442" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B442" t="n">
-        <v>1837225</v>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1837225</t>
+        </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -12127,8 +12755,10 @@
       <c r="A443" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B443" t="n">
-        <v>1816364</v>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1816364</t>
+        </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -12154,8 +12784,10 @@
       <c r="A444" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B444" t="n">
-        <v>1816353</v>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1816353</t>
+        </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -12181,8 +12813,10 @@
       <c r="A445" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B445" t="n">
-        <v>1830547</v>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1830547</t>
+        </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -12208,8 +12842,10 @@
       <c r="A446" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B446" t="n">
-        <v>1831990</v>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1831990</t>
+        </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -12235,8 +12871,10 @@
       <c r="A447" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B447" t="n">
-        <v>1816370</v>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1816370</t>
+        </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -12262,8 +12900,10 @@
       <c r="A448" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B448" t="n">
-        <v>1816355</v>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1816355</t>
+        </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -12289,8 +12929,10 @@
       <c r="A449" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B449" t="n">
-        <v>1816351</v>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1816351</t>
+        </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -12316,8 +12958,10 @@
       <c r="A450" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B450" t="n">
-        <v>582</v>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -12343,8 +12987,10 @@
       <c r="A451" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B451" t="n">
-        <v>1804025</v>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1804025</t>
+        </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -12370,8 +13016,10 @@
       <c r="A452" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B452" t="n">
-        <v>1884375</v>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1884375</t>
+        </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -12397,8 +13045,10 @@
       <c r="A453" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B453" t="n">
-        <v>1885383</v>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1885383</t>
+        </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -12424,8 +13074,10 @@
       <c r="A454" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B454" t="n">
-        <v>1885684</v>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1885684</t>
+        </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -12451,8 +13103,10 @@
       <c r="A455" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B455" t="n">
-        <v>1805563</v>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1805563</t>
+        </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -12478,8 +13132,10 @@
       <c r="A456" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B456" t="n">
-        <v>1821372</v>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1821372</t>
+        </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -12505,8 +13161,10 @@
       <c r="A457" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B457" t="n">
-        <v>1885681</v>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1885681</t>
+        </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -12532,8 +13190,10 @@
       <c r="A458" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B458" t="n">
-        <v>1884377</v>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1884377</t>
+        </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -12559,8 +13219,10 @@
       <c r="A459" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B459" t="n">
-        <v>1805628</v>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1805628</t>
+        </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -12586,8 +13248,10 @@
       <c r="A460" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B460" t="n">
-        <v>1885393</v>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1885393</t>
+        </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -12613,8 +13277,10 @@
       <c r="A461" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B461" t="n">
-        <v>1885385</v>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1885385</t>
+        </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -12640,8 +13306,10 @@
       <c r="A462" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B462" t="n">
-        <v>1837180</v>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1837180</t>
+        </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -12667,8 +13335,10 @@
       <c r="A463" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B463" t="n">
-        <v>1833099</v>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1833099</t>
+        </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -12694,8 +13364,10 @@
       <c r="A464" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B464" t="n">
-        <v>1833046</v>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1833046</t>
+        </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -12721,8 +13393,10 @@
       <c r="A465" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B465" t="n">
-        <v>1884643</v>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1884643</t>
+        </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -12748,8 +13422,10 @@
       <c r="A466" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B466" t="n">
-        <v>1837409</v>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1837409</t>
+        </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -12775,8 +13451,10 @@
       <c r="A467" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B467" t="n">
-        <v>1837175</v>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1837175</t>
+        </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -12802,8 +13480,10 @@
       <c r="A468" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B468" t="n">
-        <v>1837408</v>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1837408</t>
+        </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -12829,8 +13509,10 @@
       <c r="A469" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B469" t="n">
-        <v>1833049</v>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1833049</t>
+        </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -12856,8 +13538,10 @@
       <c r="A470" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B470" t="n">
-        <v>1837410</v>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1837410</t>
+        </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -12883,8 +13567,10 @@
       <c r="A471" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B471" t="n">
-        <v>1837406</v>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1837406</t>
+        </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -12910,8 +13596,10 @@
       <c r="A472" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B472" t="n">
-        <v>1833260</v>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1833260</t>
+        </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -12937,8 +13625,10 @@
       <c r="A473" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B473" t="n">
-        <v>1831115</v>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1831115</t>
+        </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -12964,8 +13654,10 @@
       <c r="A474" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B474" t="n">
-        <v>1833123</v>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1833123</t>
+        </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -12991,8 +13683,10 @@
       <c r="A475" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B475" t="n">
-        <v>1833259</v>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1833259</t>
+        </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -13018,8 +13712,10 @@
       <c r="A476" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B476" t="n">
-        <v>1833129</v>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1833129</t>
+        </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -13045,8 +13741,10 @@
       <c r="A477" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B477" t="n">
-        <v>1884213</v>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1884213</t>
+        </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -13072,8 +13770,10 @@
       <c r="A478" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B478" t="n">
-        <v>1832078</v>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1832078</t>
+        </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -13099,8 +13799,10 @@
       <c r="A479" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B479" t="n">
-        <v>1833130</v>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1833130</t>
+        </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -13126,8 +13828,10 @@
       <c r="A480" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B480" t="n">
-        <v>1805437</v>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1805437</t>
+        </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -13153,8 +13857,10 @@
       <c r="A481" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B481" t="n">
-        <v>1832077</v>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1832077</t>
+        </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -13180,8 +13886,10 @@
       <c r="A482" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B482" t="n">
-        <v>1818148</v>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1818148</t>
+        </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -13207,8 +13915,10 @@
       <c r="A483" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B483" t="n">
-        <v>1818139</v>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1818139</t>
+        </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -13234,8 +13944,10 @@
       <c r="A484" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B484" t="n">
-        <v>1885544</v>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1885544</t>
+        </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -13261,8 +13973,10 @@
       <c r="A485" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B485" t="n">
-        <v>1885123</v>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1885123</t>
+        </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -13288,8 +14002,10 @@
       <c r="A486" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B486" t="n">
-        <v>1885548</v>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1885548</t>
+        </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -13315,8 +14031,10 @@
       <c r="A487" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B487" t="n">
-        <v>1886067</v>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1886067</t>
+        </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -13342,8 +14060,10 @@
       <c r="A488" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B488" t="n">
-        <v>1886069</v>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1886069</t>
+        </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -13369,8 +14089,10 @@
       <c r="A489" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B489" t="n">
-        <v>1882642</v>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1882642</t>
+        </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -13396,8 +14118,10 @@
       <c r="A490" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B490" t="n">
-        <v>1885120</v>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1885120</t>
+        </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -13423,8 +14147,10 @@
       <c r="A491" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B491" t="n">
-        <v>1882649</v>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1882649</t>
+        </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -13450,8 +14176,10 @@
       <c r="A492" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B492" t="n">
-        <v>2937860</v>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2937860</t>
+        </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -13477,8 +14205,10 @@
       <c r="A493" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B493" t="n">
-        <v>2937852</v>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2937852</t>
+        </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -13504,8 +14234,10 @@
       <c r="A494" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B494" t="n">
-        <v>1830457</v>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1830457</t>
+        </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -13531,8 +14263,10 @@
       <c r="A495" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B495" t="n">
-        <v>2937851</v>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2937851</t>
+        </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -13558,8 +14292,10 @@
       <c r="A496" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B496" t="n">
-        <v>1831888</v>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1831888</t>
+        </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -13585,8 +14321,10 @@
       <c r="A497" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B497" t="n">
-        <v>1831886</v>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1831886</t>
+        </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -13612,8 +14350,10 @@
       <c r="A498" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B498" t="n">
-        <v>1831318</v>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1831318</t>
+        </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -13639,8 +14379,10 @@
       <c r="A499" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B499" t="n">
-        <v>1831884</v>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1831884</t>
+        </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -13666,8 +14408,10 @@
       <c r="A500" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B500" t="n">
-        <v>1832197</v>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1832197</t>
+        </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -13693,8 +14437,10 @@
       <c r="A501" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B501" t="n">
-        <v>1831893</v>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1831893</t>
+        </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -13720,8 +14466,10 @@
       <c r="A502" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B502" t="n">
-        <v>2937901</v>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2937901</t>
+        </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -13747,8 +14495,10 @@
       <c r="A503" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B503" t="n">
-        <v>2937765</v>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2937765</t>
+        </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -13774,8 +14524,10 @@
       <c r="A504" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B504" t="n">
-        <v>2937758</v>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2937758</t>
+        </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -13801,8 +14553,10 @@
       <c r="A505" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B505" t="n">
-        <v>2937796</v>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2937796</t>
+        </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -13828,8 +14582,10 @@
       <c r="A506" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B506" t="n">
-        <v>2937882</v>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2937882</t>
+        </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -13855,8 +14611,10 @@
       <c r="A507" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B507" t="n">
-        <v>2937622</v>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2937622</t>
+        </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -13882,8 +14640,10 @@
       <c r="A508" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B508" t="n">
-        <v>2937787</v>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2937787</t>
+        </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -13909,8 +14669,10 @@
       <c r="A509" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B509" t="n">
-        <v>2937630</v>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2937630</t>
+        </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -13936,8 +14698,10 @@
       <c r="A510" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B510" t="n">
-        <v>2937671</v>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2937671</t>
+        </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -13963,8 +14727,10 @@
       <c r="A511" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B511" t="n">
-        <v>2937824</v>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2937824</t>
+        </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -13990,8 +14756,10 @@
       <c r="A512" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B512" t="n">
-        <v>2937937</v>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2937937</t>
+        </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -14017,8 +14785,10 @@
       <c r="A513" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B513" t="n">
-        <v>2937928</v>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2937928</t>
+        </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -14044,8 +14814,10 @@
       <c r="A514" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B514" t="n">
-        <v>2937950</v>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2937950</t>
+        </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -14071,8 +14843,10 @@
       <c r="A515" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B515" t="n">
-        <v>2297972</v>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2297972</t>
+        </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -14098,8 +14872,10 @@
       <c r="A516" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B516" t="n">
-        <v>2298044</v>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2298044</t>
+        </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -14125,8 +14901,10 @@
       <c r="A517" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B517" t="n">
-        <v>2298007</v>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2298007</t>
+        </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -14152,8 +14930,10 @@
       <c r="A518" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B518" t="n">
-        <v>2297974</v>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2297974</t>
+        </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -14179,8 +14959,10 @@
       <c r="A519" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B519" t="n">
-        <v>2297941</v>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2297941</t>
+        </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -14206,8 +14988,10 @@
       <c r="A520" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B520" t="n">
-        <v>2298053</v>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2298053</t>
+        </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -14233,8 +15017,10 @@
       <c r="A521" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B521" t="n">
-        <v>2298004</v>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2298004</t>
+        </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -14260,8 +15046,10 @@
       <c r="A522" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B522" t="n">
-        <v>2117445</v>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2117445</t>
+        </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -14287,8 +15075,10 @@
       <c r="A523" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B523" t="n">
-        <v>2117373</v>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2117373</t>
+        </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -14314,8 +15104,10 @@
       <c r="A524" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B524" t="n">
-        <v>2117372</v>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2117372</t>
+        </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -14341,8 +15133,10 @@
       <c r="A525" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B525" t="n">
-        <v>2297996</v>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2297996</t>
+        </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -14368,8 +15162,10 @@
       <c r="A526" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B526" t="n">
-        <v>2297926</v>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2297926</t>
+        </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -14395,8 +15191,10 @@
       <c r="A527" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B527" t="n">
-        <v>2117452</v>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2117452</t>
+        </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -14422,8 +15220,10 @@
       <c r="A528" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B528" t="n">
-        <v>2117447</v>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2117447</t>
+        </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -14449,8 +15249,10 @@
       <c r="A529" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B529" t="n">
-        <v>2117385</v>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2117385</t>
+        </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -14476,8 +15278,10 @@
       <c r="A530" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B530" t="n">
-        <v>2138828</v>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2138828</t>
+        </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -14503,8 +15307,10 @@
       <c r="A531" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B531" t="n">
-        <v>2297992</v>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2297992</t>
+        </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -14530,8 +15336,10 @@
       <c r="A532" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B532" t="n">
-        <v>2117690</v>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2117690</t>
+        </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -14557,8 +15365,10 @@
       <c r="A533" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B533" t="n">
-        <v>2118403</v>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2118403</t>
+        </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -14584,8 +15394,10 @@
       <c r="A534" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B534" t="n">
-        <v>2118497</v>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2118497</t>
+        </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -14611,8 +15423,10 @@
       <c r="A535" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B535" t="n">
-        <v>2298066</v>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2298066</t>
+        </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -14638,8 +15452,10 @@
       <c r="A536" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B536" t="n">
-        <v>2117645</v>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2117645</t>
+        </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -14665,8 +15481,10 @@
       <c r="A537" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B537" t="n">
-        <v>2117514</v>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2117514</t>
+        </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -14692,8 +15510,10 @@
       <c r="A538" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B538" t="n">
-        <v>2297810</v>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2297810</t>
+        </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -14719,8 +15539,10 @@
       <c r="A539" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B539" t="n">
-        <v>2118455</v>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2118455</t>
+        </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -14746,8 +15568,10 @@
       <c r="A540" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B540" t="n">
-        <v>2117661</v>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2117661</t>
+        </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -14773,8 +15597,10 @@
       <c r="A541" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B541" t="n">
-        <v>2117709</v>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2117709</t>
+        </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -14800,8 +15626,10 @@
       <c r="A542" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B542" t="n">
-        <v>2117801</v>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2117801</t>
+        </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -14827,8 +15655,10 @@
       <c r="A543" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B543" t="n">
-        <v>2297904</v>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2297904</t>
+        </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -14854,8 +15684,10 @@
       <c r="A544" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B544" t="n">
-        <v>2138765</v>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2138765</t>
+        </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -14881,8 +15713,10 @@
       <c r="A545" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B545" t="n">
-        <v>2138759</v>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2138759</t>
+        </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -14908,8 +15742,10 @@
       <c r="A546" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B546" t="n">
-        <v>2117817</v>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2117817</t>
+        </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -14935,8 +15771,10 @@
       <c r="A547" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B547" t="n">
-        <v>2138781</v>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2138781</t>
+        </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -14962,8 +15800,10 @@
       <c r="A548" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B548" t="n">
-        <v>2117852</v>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2117852</t>
+        </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -14989,8 +15829,10 @@
       <c r="A549" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B549" t="n">
-        <v>2297981</v>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2297981</t>
+        </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -15016,8 +15858,10 @@
       <c r="A550" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B550" t="n">
-        <v>2138782</v>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2138782</t>
+        </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -15043,8 +15887,10 @@
       <c r="A551" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B551" t="n">
-        <v>2138795</v>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2138795</t>
+        </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -15070,8 +15916,10 @@
       <c r="A552" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B552" t="n">
-        <v>2138702</v>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2138702</t>
+        </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -15097,8 +15945,10 @@
       <c r="A553" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B553" t="n">
-        <v>2117887</v>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2117887</t>
+        </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -15124,8 +15974,10 @@
       <c r="A554" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B554" t="n">
-        <v>2118512</v>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2118512</t>
+        </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -15151,8 +16003,10 @@
       <c r="A555" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B555" t="n">
-        <v>2138754</v>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2138754</t>
+        </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -15178,8 +16032,10 @@
       <c r="A556" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B556" t="n">
-        <v>2138578</v>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2138578</t>
+        </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -15205,8 +16061,10 @@
       <c r="A557" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B557" t="n">
-        <v>2138581</v>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2138581</t>
+        </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -15232,8 +16090,10 @@
       <c r="A558" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B558" t="n">
-        <v>2138701</v>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2138701</t>
+        </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -15259,8 +16119,10 @@
       <c r="A559" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B559" t="n">
-        <v>2138695</v>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2138695</t>
+        </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -15286,8 +16148,10 @@
       <c r="A560" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B560" t="n">
-        <v>2138647</v>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2138647</t>
+        </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -15313,8 +16177,10 @@
       <c r="A561" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B561" t="n">
-        <v>2138639</v>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2138639</t>
+        </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -15340,8 +16206,10 @@
       <c r="A562" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B562" t="n">
-        <v>2297889</v>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2297889</t>
+        </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -15367,8 +16235,10 @@
       <c r="A563" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B563" t="n">
-        <v>2138885</v>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2138885</t>
+        </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -15394,8 +16264,10 @@
       <c r="A564" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B564" t="n">
-        <v>2138939</v>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2138939</t>
+        </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -15421,8 +16293,10 @@
       <c r="A565" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B565" t="n">
-        <v>2297793</v>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2297793</t>
+        </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -15448,8 +16322,10 @@
       <c r="A566" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B566" t="n">
-        <v>2297852</v>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2297852</t>
+        </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -15475,8 +16351,10 @@
       <c r="A567" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B567" t="n">
-        <v>2118165</v>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2118165</t>
+        </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -15502,8 +16380,10 @@
       <c r="A568" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B568" t="n">
-        <v>2118159</v>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2118159</t>
+        </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -15529,8 +16409,10 @@
       <c r="A569" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B569" t="n">
-        <v>2297888</v>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2297888</t>
+        </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -15556,8 +16438,10 @@
       <c r="A570" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B570" t="n">
-        <v>2297891</v>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2297891</t>
+        </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -15583,8 +16467,10 @@
       <c r="A571" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B571" t="n">
-        <v>2118103</v>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2118103</t>
+        </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -15610,8 +16496,10 @@
       <c r="A572" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B572" t="n">
-        <v>2950900</v>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2950900</t>
+        </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -15637,8 +16525,10 @@
       <c r="A573" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B573" t="n">
-        <v>2951268</v>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2951268</t>
+        </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -15664,8 +16554,10 @@
       <c r="A574" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B574" t="n">
-        <v>2950894</v>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2950894</t>
+        </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -15691,8 +16583,10 @@
       <c r="A575" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B575" t="n">
-        <v>2951259</v>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2951259</t>
+        </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -15718,8 +16612,10 @@
       <c r="A576" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B576" t="n">
-        <v>2950924</v>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2950924</t>
+        </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -15745,8 +16641,10 @@
       <c r="A577" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B577" t="n">
-        <v>2950949</v>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2950949</t>
+        </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -15772,8 +16670,10 @@
       <c r="A578" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B578" t="n">
-        <v>2951375</v>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2951375</t>
+        </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -15799,8 +16699,10 @@
       <c r="A579" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B579" t="n">
-        <v>2950957</v>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2950957</t>
+        </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -15826,8 +16728,10 @@
       <c r="A580" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B580" t="n">
-        <v>2971713</v>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2971713</t>
+        </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -15853,8 +16757,10 @@
       <c r="A581" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B581" t="n">
-        <v>2950939</v>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2950939</t>
+        </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -15880,8 +16786,10 @@
       <c r="A582" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B582" t="n">
-        <v>250010</v>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>250010</t>
+        </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -15907,8 +16815,10 @@
       <c r="A583" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B583" t="n">
-        <v>2566970</v>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2566970</t>
+        </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -15934,8 +16844,10 @@
       <c r="A584" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B584" t="n">
-        <v>2586872</v>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2586872</t>
+        </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -15961,8 +16873,10 @@
       <c r="A585" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B585" t="n">
-        <v>250023</v>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>250023</t>
+        </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -15988,8 +16902,10 @@
       <c r="A586" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B586" t="n">
-        <v>2566941</v>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2566941</t>
+        </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -16015,8 +16931,10 @@
       <c r="A587" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B587" t="n">
-        <v>2586976</v>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2586976</t>
+        </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
@@ -16042,8 +16960,10 @@
       <c r="A588" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B588" t="n">
-        <v>2566915</v>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2566915</t>
+        </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
@@ -16069,8 +16989,10 @@
       <c r="A589" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B589" t="n">
-        <v>250020</v>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>250020</t>
+        </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -16096,8 +17018,10 @@
       <c r="A590" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B590" t="n">
-        <v>2566933</v>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2566933</t>
+        </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
@@ -16123,8 +17047,10 @@
       <c r="A591" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B591" t="n">
-        <v>2566908</v>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2566908</t>
+        </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
@@ -16150,8 +17076,10 @@
       <c r="A592" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B592" t="n">
-        <v>2566920</v>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2566920</t>
+        </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -16177,8 +17105,10 @@
       <c r="A593" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B593" t="n">
-        <v>2586882</v>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2586882</t>
+        </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -16204,8 +17134,10 @@
       <c r="A594" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B594" t="n">
-        <v>2586883</v>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2586883</t>
+        </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -16231,8 +17163,10 @@
       <c r="A595" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B595" t="n">
-        <v>2566919</v>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2566919</t>
+        </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -16258,8 +17192,10 @@
       <c r="A596" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B596" t="n">
-        <v>2586889</v>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2586889</t>
+        </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -16285,8 +17221,10 @@
       <c r="A597" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B597" t="n">
-        <v>2586948</v>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2586948</t>
+        </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -16312,8 +17250,10 @@
       <c r="A598" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B598" t="n">
-        <v>2587012</v>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2587012</t>
+        </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -16339,8 +17279,10 @@
       <c r="A599" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B599" t="n">
-        <v>2587013</v>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2587013</t>
+        </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -16366,8 +17308,10 @@
       <c r="A600" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B600" t="n">
-        <v>250075</v>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>250075</t>
+        </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -16393,8 +17337,10 @@
       <c r="A601" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B601" t="n">
-        <v>2586949</v>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2586949</t>
+        </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -16420,8 +17366,10 @@
       <c r="A602" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B602" t="n">
-        <v>317676</v>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>317676</t>
+        </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -16447,8 +17395,10 @@
       <c r="A603" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B603" t="n">
-        <v>2566987</v>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2566987</t>
+        </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
@@ -16474,8 +17424,10 @@
       <c r="A604" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B604" t="n">
-        <v>2567026</v>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2567026</t>
+        </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
@@ -16501,8 +17453,10 @@
       <c r="A605" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B605" t="n">
-        <v>2695946</v>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2695946</t>
+        </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -16528,8 +17482,10 @@
       <c r="A606" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B606" t="n">
-        <v>2695940</v>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2695940</t>
+        </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -16555,8 +17511,10 @@
       <c r="A607" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B607" t="n">
-        <v>2587004</v>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2587004</t>
+        </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -16582,8 +17540,10 @@
       <c r="A608" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B608" t="n">
-        <v>2586922</v>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2586922</t>
+        </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -16609,8 +17569,10 @@
       <c r="A609" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B609" t="n">
-        <v>2567029</v>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2567029</t>
+        </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -16636,8 +17598,10 @@
       <c r="A610" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B610" t="n">
-        <v>2566986</v>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2566986</t>
+        </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
@@ -16663,8 +17627,10 @@
       <c r="A611" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B611" t="n">
-        <v>2567028</v>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2567028</t>
+        </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -16690,8 +17656,10 @@
       <c r="A612" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B612" t="n">
-        <v>322831</v>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>322831</t>
+        </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
@@ -16717,8 +17685,10 @@
       <c r="A613" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B613" t="n">
-        <v>2696457</v>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2696457</t>
+        </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
@@ -16744,8 +17714,10 @@
       <c r="A614" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B614" t="n">
-        <v>2677766</v>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2677766</t>
+        </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -16771,8 +17743,10 @@
       <c r="A615" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B615" t="n">
-        <v>323271</v>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>323271</t>
+        </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
@@ -16798,8 +17772,10 @@
       <c r="A616" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B616" t="n">
-        <v>2696423</v>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2696423</t>
+        </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
@@ -16825,8 +17801,10 @@
       <c r="A617" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B617" t="n">
-        <v>2696418</v>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2696418</t>
+        </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
@@ -16852,8 +17830,10 @@
       <c r="A618" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B618" t="n">
-        <v>2677869</v>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2677869</t>
+        </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
@@ -16879,8 +17859,10 @@
       <c r="A619" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B619" t="n">
-        <v>323271</v>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>323271</t>
+        </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
@@ -16906,8 +17888,10 @@
       <c r="A620" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B620" t="n">
-        <v>322835</v>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>322835</t>
+        </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
@@ -16933,8 +17917,10 @@
       <c r="A621" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B621" t="n">
-        <v>319554</v>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>319554</t>
+        </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -16960,8 +17946,10 @@
       <c r="A622" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B622" t="n">
-        <v>324390</v>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>324390</t>
+        </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
@@ -16987,8 +17975,10 @@
       <c r="A623" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B623" t="n">
-        <v>342805</v>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>342805</t>
+        </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
@@ -17014,8 +18004,10 @@
       <c r="A624" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B624" t="n">
-        <v>338744</v>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>338744</t>
+        </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
@@ -17041,8 +18033,10 @@
       <c r="A625" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B625" t="n">
-        <v>338749</v>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>338749</t>
+        </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
@@ -17068,8 +18062,10 @@
       <c r="A626" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B626" t="n">
-        <v>341867</v>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>341867</t>
+        </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
@@ -17095,8 +18091,10 @@
       <c r="A627" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B627" t="n">
-        <v>340781</v>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>340781</t>
+        </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -17122,8 +18120,10 @@
       <c r="A628" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B628" t="n">
-        <v>338744</v>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>338744</t>
+        </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
@@ -17149,8 +18149,10 @@
       <c r="A629" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B629" t="n">
-        <v>340775</v>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>340775</t>
+        </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
@@ -17176,8 +18178,10 @@
       <c r="A630" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B630" t="n">
-        <v>324393</v>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>324393</t>
+        </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
@@ -17203,8 +18207,10 @@
       <c r="A631" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B631" t="n">
-        <v>4132485</v>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>4132485</t>
+        </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
@@ -17230,8 +18236,10 @@
       <c r="A632" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B632" t="n">
-        <v>3648610</v>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>3648610</t>
+        </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -17257,8 +18265,10 @@
       <c r="A633" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B633" t="n">
-        <v>25053940</v>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>25053940</t>
+        </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -17284,8 +18294,10 @@
       <c r="A634" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B634" t="n">
-        <v>3132198</v>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>3132198</t>
+        </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -17311,8 +18323,10 @@
       <c r="A635" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B635" t="n">
-        <v>3648637</v>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>3648637</t>
+        </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -17338,8 +18352,10 @@
       <c r="A636" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B636" t="n">
-        <v>344801</v>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>344801</t>
+        </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -17365,8 +18381,10 @@
       <c r="A637" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B637" t="n">
-        <v>3132202</v>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>3132202</t>
+        </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -17392,8 +18410,10 @@
       <c r="A638" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B638" t="n">
-        <v>25053932</v>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>25053932</t>
+        </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -17419,8 +18439,10 @@
       <c r="A639" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B639" t="n">
-        <v>3132203</v>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>3132203</t>
+        </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -17446,8 +18468,10 @@
       <c r="A640" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B640" t="n">
-        <v>378533</v>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>378533</t>
+        </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -17473,8 +18497,10 @@
       <c r="A641" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B641" t="n">
-        <v>367684</v>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>367684</t>
+        </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
@@ -17500,8 +18526,10 @@
       <c r="A642" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B642" t="n">
-        <v>3700631</v>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>3700631</t>
+        </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
@@ -17527,8 +18555,10 @@
       <c r="A643" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B643" t="n">
-        <v>3700632</v>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>3700632</t>
+        </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
@@ -17554,8 +18584,10 @@
       <c r="A644" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B644" t="n">
-        <v>3700709</v>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>3700709</t>
+        </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
@@ -17581,8 +18613,10 @@
       <c r="A645" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B645" t="n">
-        <v>3700633</v>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>3700633</t>
+        </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -17608,8 +18642,10 @@
       <c r="A646" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B646" t="n">
-        <v>381479</v>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>381479</t>
+        </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
@@ -17635,8 +18671,10 @@
       <c r="A647" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B647" t="n">
-        <v>3700628</v>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>3700628</t>
+        </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
@@ -17662,8 +18700,10 @@
       <c r="A648" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B648" t="n">
-        <v>424739</v>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>424739</t>
+        </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
@@ -17689,8 +18729,10 @@
       <c r="A649" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B649" t="n">
-        <v>380084</v>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>380084</t>
+        </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
@@ -17716,8 +18758,10 @@
       <c r="A650" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B650" t="n">
-        <v>3700709</v>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>3700709</t>
+        </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
@@ -17743,8 +18787,10 @@
       <c r="A651" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B651" t="n">
-        <v>3700712</v>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>3700712</t>
+        </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
@@ -17770,8 +18816,10 @@
       <c r="A652" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B652" t="n">
-        <v>491589</v>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>491589</t>
+        </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
@@ -17797,8 +18845,10 @@
       <c r="A653" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B653" t="n">
-        <v>3700681</v>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>3700681</t>
+        </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
@@ -17824,8 +18874,10 @@
       <c r="A654" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B654" t="n">
-        <v>25098735</v>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>25098735</t>
+        </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
@@ -17851,8 +18903,10 @@
       <c r="A655" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B655" t="n">
-        <v>3700660</v>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>3700660</t>
+        </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
@@ -17878,8 +18932,10 @@
       <c r="A656" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B656" t="n">
-        <v>3700658</v>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>3700658</t>
+        </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
@@ -17905,8 +18961,10 @@
       <c r="A657" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B657" t="n">
-        <v>498586</v>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>498586</t>
+        </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
@@ -17932,8 +18990,10 @@
       <c r="A658" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B658" t="n">
-        <v>3700704</v>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>3700704</t>
+        </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
@@ -17959,8 +19019,10 @@
       <c r="A659" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B659" t="n">
-        <v>491590</v>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>491590</t>
+        </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
@@ -17986,8 +19048,10 @@
       <c r="A660" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B660" t="n">
-        <v>429804</v>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>429804</t>
+        </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
@@ -18013,8 +19077,10 @@
       <c r="A661" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B661" t="n">
-        <v>426036</v>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>426036</t>
+        </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
@@ -18040,8 +19106,10 @@
       <c r="A662" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B662" t="n">
-        <v>3700615</v>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>3700615</t>
+        </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -18067,8 +19135,10 @@
       <c r="A663" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B663" t="n">
-        <v>507155</v>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>507155</t>
+        </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -18094,8 +19164,10 @@
       <c r="A664" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B664" t="n">
-        <v>25098804</v>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>25098804</t>
+        </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
@@ -18121,8 +19193,10 @@
       <c r="A665" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B665" t="n">
-        <v>4123250</v>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>4123250</t>
+        </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -18148,8 +19222,10 @@
       <c r="A666" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B666" t="n">
-        <v>20185029</v>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>20185029</t>
+        </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
@@ -18175,8 +19251,10 @@
       <c r="A667" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B667" t="n">
-        <v>4123255</v>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>4123255</t>
+        </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
@@ -18202,8 +19280,10 @@
       <c r="A668" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B668" t="n">
-        <v>508030</v>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>508030</t>
+        </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
@@ -18229,8 +19309,10 @@
       <c r="A669" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B669" t="n">
-        <v>3700646</v>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>3700646</t>
+        </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
@@ -18256,8 +19338,10 @@
       <c r="A670" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B670" t="n">
-        <v>3700616</v>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>3700616</t>
+        </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
@@ -18283,8 +19367,10 @@
       <c r="A671" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B671" t="n">
-        <v>503550</v>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>503550</t>
+        </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
@@ -18310,8 +19396,10 @@
       <c r="A672" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B672" t="n">
-        <v>25098887</v>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>25098887</t>
+        </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
@@ -18337,8 +19425,10 @@
       <c r="A673" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B673" t="n">
-        <v>25098850</v>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>25098850</t>
+        </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
@@ -18364,8 +19454,10 @@
       <c r="A674" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B674" t="n">
-        <v>25098870</v>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>25098870</t>
+        </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
@@ -18391,8 +19483,10 @@
       <c r="A675" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B675" t="n">
-        <v>4626151</v>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>4626151</t>
+        </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
@@ -18418,8 +19512,10 @@
       <c r="A676" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B676" t="n">
-        <v>30034460</v>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>30034460</t>
+        </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
@@ -18445,8 +19541,10 @@
       <c r="A677" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B677" t="n">
-        <v>25098887</v>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>25098887</t>
+        </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
@@ -18472,8 +19570,10 @@
       <c r="A678" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B678" t="n">
-        <v>4626153</v>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>4626153</t>
+        </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
@@ -18499,8 +19599,10 @@
       <c r="A679" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B679" t="n">
-        <v>25098885</v>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>25098885</t>
+        </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
@@ -18526,8 +19628,10 @@
       <c r="A680" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B680" t="n">
-        <v>25098886</v>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>25098886</t>
+        </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
@@ -18553,8 +19657,10 @@
       <c r="A681" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B681" t="n">
-        <v>511995</v>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>511995</t>
+        </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
@@ -18580,8 +19686,10 @@
       <c r="A682" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B682" t="n">
-        <v>20185044</v>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>20185044</t>
+        </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
@@ -18607,8 +19715,10 @@
       <c r="A683" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B683" t="n">
-        <v>591909</v>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>591909</t>
+        </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
@@ -18634,8 +19744,10 @@
       <c r="A684" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B684" t="n">
-        <v>20185076</v>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>20185076</t>
+        </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
@@ -18661,8 +19773,10 @@
       <c r="A685" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B685" t="n">
-        <v>20185051</v>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>20185051</t>
+        </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
@@ -18688,8 +19802,10 @@
       <c r="A686" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B686" t="n">
-        <v>20185055</v>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>20185055</t>
+        </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
@@ -18715,8 +19831,10 @@
       <c r="A687" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B687" t="n">
-        <v>4626189</v>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>4626189</t>
+        </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
@@ -18742,8 +19860,10 @@
       <c r="A688" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B688" t="n">
-        <v>20185061</v>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>20185061</t>
+        </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
@@ -18769,8 +19889,10 @@
       <c r="A689" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B689" t="n">
-        <v>20185035</v>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>20185035</t>
+        </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
@@ -18796,8 +19918,10 @@
       <c r="A690" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B690" t="n">
-        <v>20185046</v>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>20185046</t>
+        </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
@@ -18823,8 +19947,10 @@
       <c r="A691" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B691" t="n">
-        <v>596102</v>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>596102</t>
+        </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
@@ -18850,8 +19976,10 @@
       <c r="A692" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B692" t="n">
-        <v>40506270</v>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>40506270</t>
+        </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
@@ -18877,8 +20005,10 @@
       <c r="A693" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B693" t="n">
-        <v>40506272</v>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>40506272</t>
+        </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
@@ -18904,8 +20034,10 @@
       <c r="A694" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B694" t="n">
-        <v>40506244</v>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>40506244</t>
+        </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
@@ -18931,8 +20063,10 @@
       <c r="A695" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B695" t="n">
-        <v>40506271</v>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>40506271</t>
+        </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
@@ -18958,8 +20092,10 @@
       <c r="A696" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B696" t="n">
-        <v>40247633</v>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>40247633</t>
+        </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
@@ -18985,8 +20121,10 @@
       <c r="A697" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B697" t="n">
-        <v>40506224</v>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>40506224</t>
+        </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
@@ -19012,8 +20150,10 @@
       <c r="A698" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B698" t="n">
-        <v>644840</v>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>644840</t>
+        </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
@@ -19039,8 +20179,10 @@
       <c r="A699" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B699" t="n">
-        <v>25592402</v>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>25592402</t>
+        </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
@@ -19066,8 +20208,10 @@
       <c r="A700" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B700" t="n">
-        <v>40506236</v>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>40506236</t>
+        </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
@@ -19093,8 +20237,10 @@
       <c r="A701" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B701" t="n">
-        <v>40506225</v>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>40506225</t>
+        </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
@@ -19120,8 +20266,10 @@
       <c r="A702" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B702" t="n">
-        <v>40587646</v>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>40587646</t>
+        </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
@@ -19147,8 +20295,10 @@
       <c r="A703" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B703" t="n">
-        <v>40961010</v>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>40961010</t>
+        </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
@@ -19174,8 +20324,10 @@
       <c r="A704" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B704" t="n">
-        <v>40961013</v>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>40961013</t>
+        </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
@@ -19201,8 +20353,10 @@
       <c r="A705" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B705" t="n">
-        <v>27867494</v>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>27867494</t>
+        </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
@@ -19228,8 +20382,10 @@
       <c r="A706" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B706" t="n">
-        <v>40961016</v>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>40961016</t>
+        </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
@@ -19255,8 +20411,10 @@
       <c r="A707" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B707" t="n">
-        <v>651673</v>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>651673</t>
+        </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -19282,8 +20440,10 @@
       <c r="A708" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B708" t="n">
-        <v>40587645</v>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>40587645</t>
+        </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
@@ -19309,8 +20469,10 @@
       <c r="A709" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B709" t="n">
-        <v>40961018</v>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>40961018</t>
+        </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
@@ -19336,8 +20498,10 @@
       <c r="A710" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B710" t="n">
-        <v>40587636</v>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>40587636</t>
+        </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
@@ -19363,8 +20527,10 @@
       <c r="A711" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B711" t="n">
-        <v>40835850</v>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>40835850</t>
+        </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
